--- a/flashcards/Memcode - KS Oeffentliches Recht I - 3. Test (JKU, Austria).xlsx
+++ b/flashcards/Memcode - KS Oeffentliches Recht I - 3. Test (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Question</t>
   </si>
@@ -19,10 +19,70 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Wie unterscheiden sich materielle und formelle Gesetze hinsichtlich Zuständigkeit der Gesetzgebung und Vollziehung bzw des Blickwinkels der &lt;strong&gt;Gewaltenteilung&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;materielle&lt;/strong&gt; (inhaltlich) Gewaltenteilung: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;alle Rechtsnormen mit allgemeinem Adressatenkreis, Gesetze + Verordnungen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;formelle &lt;/strong&gt;Gewaltenteilung:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Rechtsnorm wurde von Gesetzgebungsorgan erlassen -&amp;gt; Gesetze von Nationalrat&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Verordnungen sind in dem Sinne Verwaltungsakte&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind generelle Rechtsnormen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Staatlich gesetzte Verhaltensanordnungen mit einem allgemeinen Adressatenkreis &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der Unterschied zwischen dem formellen und dem materiellen Rechtstaat?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;formell&lt;/strong&gt;: Verfassungsstaat, Gesetzesstaat, Rechtsschutzstaat, gewaltenteilender Staat, &lt;strong&gt;aber&lt;/strong&gt; inhalt der Rechtsordnung egal -&amp;gt; kann also auch Diktatur ein.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;materiell&lt;/strong&gt;: Inhalt der Rechtsordnung zählt: Wertvorstellungen sind relevant, Grundrechte sind wesentliches Kriterium&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche drei Arten Selbstverwaltungskörper gibt es?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Territoriale: Gemeinden&lt;/li&gt;&lt;li&gt;Berufliche: ÖH, (Anwalts, ... ) Kammern&lt;/li&gt;&lt;li&gt;Soziale: Krankenkassen, ... &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Selbstverwaltungskörper?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Gesetzliche Zusammenfassung &lt;/strong&gt;von Personengruppen, die als juristische Person diese Gruppen vertritt. Können öffentliche Aufgaben, die sie selbst betreffen, selbst besorgen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Folge, wenn eine Angelegenheit gem. Art 118 (2) B-VG in den eigenen Wirkungsbereich einer Gemeinde fallen sollte, im Gesetz aber nicht ausdrücklich als dafür bestimmt markiert wird?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Das Gesetz ist Gem Art 118 (2) B-VG verfassungswidrig. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine Weisung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verbindliche Anordnung von einem Verwaltungsorgan an ein nachgeordnetes Verwaltungsorgan. &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was ist die &lt;/span&gt;&lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;funktionelle &lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Zuordnung einer Behörde?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die Weisungsabhängigkeit für einen konkreten Sachverhalt. &lt;/li&gt;&lt;li&gt;Dies kann sich abhängig von Sachverhalt ändern: z.B. durch mittelbare Bundesverwaltung.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind Selbstbindungsgesetze?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Regelt das privatrechtliche Handeln des Staates ohne Wirkung auf die Rechtsunterworfenen.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;organisatorische&lt;/strong&gt; Zuordnung einer Behörde?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wer richtet die Behörde ein, wer finanziert sie.&lt;/li&gt;&lt;li&gt;Entweder Land oder Bund.&lt;/li&gt;&lt;li&gt;Unveränderlich - bleibt immer gleich&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Was ist eine Gemeinde? &lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;Juristische Person des öffentlichen Rechts&lt;/li&gt;&lt;li&gt;Gebietskörperschaft&lt;/li&gt;&lt;/ul&gt;</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Territorialer Selbstverwaltungskörper&lt;/strong&gt;, also eine &lt;strong&gt;Gebietskörperschaft &lt;/strong&gt;und &lt;strong&gt;juristische Person des öffentlichen Rechts&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Vertritt die Menschen, die in ihr leben und kann autonom die sie selbst betreffenden Verwaltungsaufgaben erfüllen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Wem kommt die politische Kontrolle in der Gemeinde zu?&lt;/p&gt;&lt;p&gt;Wie wird dieses Organ noch genannt?&lt;/p&gt;</t>
@@ -161,12 +221,6 @@
   </si>
   <si>
     <t>&lt;p&gt;Alle Gemeinden, außer Statutarstädte, haben einen im Umfang einheitlichen Wirkungsbereich und ein einheitliches Organisationsrecht. &lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Was sind Selbstverwaltungskörper?&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Können öffentliche Aufgaben, die sie selbst betreffen selbst besorgen lassen. &lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Ist jeder Mensch handlungsfähig?&lt;/p&gt;</t>
@@ -748,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -1218,6 +1272,78 @@
         <v>115</v>
       </c>
     </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
